--- a/inst/extdata/echogo_demo_results/evaluation/cumulative_by_origin_exploratory.xlsx
+++ b/inst/extdata/echogo_demo_results/evaluation/cumulative_by_origin_exploratory.xlsx
@@ -35,10 +35,10 @@
     <t xml:space="preserve">BP</t>
   </si>
   <si>
+    <t xml:space="preserve">drerio</t>
+  </si>
+  <si>
     <t xml:space="preserve">hsapiens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drerio</t>
   </si>
   <si>
     <t xml:space="preserve">mmusculus</t>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -438,10 +438,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -455,10 +455,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>92</v>
+        <v>627</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>491</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -472,10 +472,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>127</v>
+        <v>831</v>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -489,10 +489,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -500,16 +500,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D7" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -517,16 +517,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="D8" t="n">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -540,10 +540,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="D9" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -557,10 +557,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -568,16 +568,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -585,16 +585,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>47</v>
+        <v>216</v>
       </c>
       <c r="D12" t="n">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -608,10 +608,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="D13" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -625,10 +625,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="D14" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -636,16 +636,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>119</v>
+        <v>336</v>
       </c>
       <c r="D15" t="n">
-        <v>92</v>
+        <v>266</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -653,16 +653,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>231</v>
+        <v>1020</v>
       </c>
       <c r="D16" t="n">
-        <v>112</v>
+        <v>684</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -676,10 +676,10 @@
         <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>364</v>
+        <v>1305</v>
       </c>
       <c r="D17" t="n">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
